--- a/biology/Botanique/Batirama/Batirama.xlsx
+++ b/biology/Botanique/Batirama/Batirama.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Batirama est un magazine français d’informations professionnelles du secteur du bâtiment et des travaux publics (BTP), créé en novembre 1969.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Batirama est créé à Montpellier en 1969. Il s'agit d'un magazine d'informations spécialisées de la construction qui se défend d'être devenu un bi-média, c'est-à-dire avec des publications périodiques papiers, à raison de huit numéros par an et des informations digitales diffusées en continue[1].
-En 2003, le groupe Bertelsmann cède le magazine Batirama à son dirigeant[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Batirama est créé à Montpellier en 1969. Il s'agit d'un magazine d'informations spécialisées de la construction qui se défend d'être devenu un bi-média, c'est-à-dire avec des publications périodiques papiers, à raison de huit numéros par an et des informations digitales diffusées en continue.
+En 2003, le groupe Bertelsmann cède le magazine Batirama à son dirigeant.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le média s'adresse aux acteurs professionnels de la filière bois, notamment sur la partie avale du marché[3].
-Spécialisé dans le domaine du bâtiment et les travaux publics, Batirama fait des articles de fond à partir d'études spécifiques[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le média s'adresse aux acteurs professionnels de la filière bois, notamment sur la partie avale du marché.
+Spécialisé dans le domaine du bâtiment et les travaux publics, Batirama fait des articles de fond à partir d'études spécifiques. 
 </t>
         </is>
       </c>
